--- a/src/main/java/com/billhub/qa/testdata/invoice_verification_sheet_non_po.xlsx
+++ b/src/main/java/com/billhub/qa/testdata/invoice_verification_sheet_non_po.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B0D97E-2148-4EDC-8B15-4D506419E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Memo_Verification_details" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,11 @@
     <sheet name="Payment Term" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="341">
   <si>
     <t>Status</t>
   </si>
@@ -999,9 +999,6 @@
     <t>40020019</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>2024-03-19</t>
   </si>
   <si>
@@ -1009,12 +1006,49 @@
   </si>
   <si>
     <t>test_comment_1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>996713</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5000000010</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TESTINV72213</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>14395978</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1098,6 +1132,264 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,42 +1696,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.453125" customWidth="1"/>
-    <col min="21" max="1029" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875"/>
+    <col min="3" max="3" customWidth="true" width="23.77734375"/>
+    <col min="4" max="4" customWidth="true" width="20.21875"/>
+    <col min="5" max="7" customWidth="true" width="23.21875"/>
+    <col min="8" max="8" customWidth="true" width="15.77734375"/>
+    <col min="9" max="11" customWidth="true" width="14.0"/>
+    <col min="12" max="12" customWidth="true" width="21.0"/>
+    <col min="13" max="13" customWidth="true" width="14.0"/>
+    <col min="14" max="14" customWidth="true" width="10.21875"/>
+    <col min="15" max="15" customWidth="true" width="9.5546875"/>
+    <col min="16" max="16" customWidth="true" style="1" width="14.44140625"/>
+    <col min="17" max="17" customWidth="true" width="15.5546875"/>
+    <col min="18" max="18" customWidth="true" width="9.21875"/>
+    <col min="19" max="19" customWidth="true" width="14.0"/>
+    <col min="20" max="20" customWidth="true" width="11.44140625"/>
+    <col min="21" max="1029" customWidth="true" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,91 +1793,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>5000000010</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="I2" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>5000000010</v>
-      </c>
-      <c r="N2">
+      <c r="L2" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="N2" s="0">
         <v>996713</v>
       </c>
-      <c r="O2" t="s">
-        <v>82</v>
+      <c r="O2" s="96" t="s">
+        <v>86</v>
       </c>
       <c r="P2" s="10">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
-        <v>326</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="S2" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="T2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="T2" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1593,43 +1859,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="10" width="8.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" customWidth="1"/>
-    <col min="17" max="1026" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.21875"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875"/>
+    <col min="4" max="4" customWidth="true" width="13.77734375"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625"/>
+    <col min="6" max="6" customWidth="true" width="18.21875"/>
+    <col min="7" max="7" customWidth="true" width="20.21875"/>
+    <col min="8" max="10" customWidth="true" width="8.5546875"/>
+    <col min="11" max="11" customWidth="true" width="10.21875"/>
+    <col min="12" max="12" customWidth="true" width="16.0"/>
+    <col min="13" max="13" customWidth="true" width="10.5546875"/>
+    <col min="14" max="14" customWidth="true" width="21.44140625"/>
+    <col min="15" max="15" customWidth="true" width="13.77734375"/>
+    <col min="16" max="16" customWidth="true" width="18.77734375"/>
+    <col min="17" max="1026" customWidth="true" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>24</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1650,69 +1916,69 @@
       <c r="J1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>32</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.36</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>996713</v>
-      </c>
-      <c r="L2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" t="s">
-        <v>329</v>
-      </c>
-      <c r="N2">
-        <v>2.36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="E2" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="M2" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="O2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="83" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1723,242 +1989,242 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0"/>
+    <col min="2" max="2" customWidth="true" width="21.44140625"/>
+    <col min="3" max="3" customWidth="true" width="10.5546875"/>
+    <col min="4" max="1025" customWidth="true" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="0">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1969,788 +2235,788 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.44140625"/>
+    <col min="2" max="2" customWidth="true" width="48.44140625"/>
+    <col min="3" max="3" customWidth="true" width="14.5546875"/>
+    <col min="4" max="1025" customWidth="true" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2761,625 +3027,625 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="2" width="42.26953125" customWidth="1"/>
-    <col min="3" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5546875"/>
+    <col min="2" max="2" customWidth="true" width="42.21875"/>
+    <col min="3" max="1025" customWidth="true" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>219</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s" s="0">
         <v>235</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s" s="0">
         <v>263</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s" s="0">
         <v>269</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s" s="0">
         <v>275</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s" s="0">
         <v>316</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s" s="0">
         <v>317</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s" s="0">
         <v>318</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s" s="0">
         <v>319</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s" s="0">
         <v>320</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>282</v>
       </c>
     </row>
